--- a/results/mp/logistic/corona/confidence/126/masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,40 +40,43 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>no</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
@@ -82,21 +85,27 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -109,13 +118,22 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>safe</t>
@@ -124,85 +142,73 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7894736842105263</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M5">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.773972602739726</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C6">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7027027027027027</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5686274509803921</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,16 +906,16 @@
         <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5608465608465608</v>
+        <v>0.5503875968992248</v>
       </c>
       <c r="C9">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="D9">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8098591549295775</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.559322033898305</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5368217054263565</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C11">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.7872340425531915</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5100671140939598</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C12">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4533333333333333</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>205</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4111111111111111</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C14">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7735849056603774</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.257936507936508</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C15">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7682926829268293</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,7 +1285,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1689008042895442</v>
+        <v>0.25</v>
       </c>
       <c r="C16">
         <v>63</v>
@@ -1297,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>310</v>
+        <v>189</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7575757575757576</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,37 +1335,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01581155211358503</v>
+        <v>0.1796246648793566</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D17">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E17">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>3050</v>
+        <v>306</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7441860465116279</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,37 +1385,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01561840439003799</v>
+        <v>0.09666666666666666</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E18">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2332</v>
+        <v>271</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7435897435897436</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,37 +1435,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007676203768318213</v>
+        <v>0.01612383102225089</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E19">
-        <v>0.47</v>
+        <v>0.11</v>
       </c>
       <c r="F19">
-        <v>0.53</v>
+        <v>0.89</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>4266</v>
+        <v>3051</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,37 +1485,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007670569236980218</v>
+        <v>0.0130581297388374</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E20">
-        <v>0.53</v>
+        <v>0.14</v>
       </c>
       <c r="F20">
-        <v>0.47</v>
+        <v>0.86</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>4916</v>
+        <v>2343</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7265625</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L20">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,89 +1535,137 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006622516556291391</v>
+        <v>0.01089324618736384</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E21">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="F21">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>5100</v>
+        <v>2270</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L21">
         <v>46</v>
       </c>
-      <c r="K21">
-        <v>0.7</v>
-      </c>
-      <c r="L21">
+      <c r="M21">
+        <v>46</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.007453666398066076</v>
+      </c>
+      <c r="C22">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>69</v>
+      </c>
+      <c r="E22">
+        <v>0.46</v>
+      </c>
+      <c r="F22">
+        <v>0.54</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>4927</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>0.65</v>
+      </c>
+      <c r="L22">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M21">
-        <v>28</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.6875</v>
-      </c>
-      <c r="L22">
-        <v>33</v>
-      </c>
-      <c r="M22">
-        <v>33</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="B23">
+        <v>0.00720404984423676</v>
+      </c>
+      <c r="C23">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>66</v>
+      </c>
+      <c r="E23">
+        <v>0.44</v>
+      </c>
+      <c r="F23">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>5099</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.6529411764705882</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L23">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M23">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1623,21 +1677,45 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.00604370060437006</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>4276</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.5966101694915255</v>
+        <v>0.64</v>
       </c>
       <c r="L24">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1649,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.5857740585774058</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L25">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1675,47 +1753,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.58</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.5571428571428572</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1727,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.5538461538461539</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1758,16 +1836,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.5531914893617021</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L29">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1779,21 +1857,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.5168539325842697</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1805,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.5098039215686274</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1831,241 +1909,215 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.3717948717948718</v>
+        <v>0.03839732888146911</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>49</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.3698630136986301</v>
+        <v>0.02032838154808444</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.03502919099249374</v>
+        <v>0.0139150056412185</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>0.73</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>1157</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.01614720240330455</v>
+        <v>0.01068639539662967</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N35">
-        <v>0.8100000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="O35">
-        <v>0.1899999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2620</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.01221804511278195</v>
+        <v>0.01045587620242576</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N36">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="O36">
-        <v>0.1899999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>3153</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="K37">
-        <v>0.01069958847736626</v>
+        <v>0.006452913893930228</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="N37">
-        <v>0.63</v>
+        <v>0.46</v>
       </c>
       <c r="O37">
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2404</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K38">
-        <v>0.008471157724889069</v>
+        <v>0.00604370060437006</v>
       </c>
       <c r="L38">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="N38">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="O38">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>4916</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K39">
-        <v>0.006752037252619325</v>
+        <v>0.005655226209048362</v>
       </c>
       <c r="L39">
         <v>29</v>
       </c>
       <c r="M39">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N39">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="O39">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>4266</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40">
-        <v>0.006041707269538101</v>
-      </c>
-      <c r="L40">
-        <v>31</v>
-      </c>
-      <c r="M40">
-        <v>65</v>
-      </c>
-      <c r="N40">
-        <v>0.48</v>
-      </c>
-      <c r="O40">
-        <v>0.52</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>5100</v>
+        <v>5099</v>
       </c>
     </row>
   </sheetData>
